--- a/COMPREHENSIVE-TEMPLATE-FULL.xlsx
+++ b/COMPREHENSIVE-TEMPLATE-FULL.xlsx
@@ -1064,7 +1064,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A + B + C</t>
+          <t>m1 + m2 + m3</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1084,11 +1084,11 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Számítások</t>
+          <t>Mérések</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Berechnungen</t>
+          <t>Messungen</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">

--- a/COMPREHENSIVE-TEMPLATE-FULL.xlsx
+++ b/COMPREHENSIVE-TEMPLATE-FULL.xlsx
@@ -1064,7 +1064,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>m1 + m2 + m3</t>
+          <t>m1+m2+m3</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
